--- a/data/outputs/能源化工元源数据文件/13CHEMICAL ENGINEERING & TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件/13CHEMICAL ENGINEERING & TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ268"/>
+  <dimension ref="A1:BR268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +938,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4610776</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1152,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>4610807</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1355,6 +1370,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>4437449</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1588,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4437461</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1810,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4610808</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2002,6 +2032,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2223,6 +2254,11 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>4610800</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2444,6 +2480,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4610805</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2653,6 +2694,11 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>4434915</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2866,6 +2912,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4610801</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3071,6 +3122,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4434884</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3284,6 +3340,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>4610794</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3493,6 +3554,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>4610783</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3706,6 +3772,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4610770</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3907,6 +3978,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4116,6 +4188,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4610793</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4321,6 +4398,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>4610775</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4538,6 +4620,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4610782</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4751,6 +4838,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4610773</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4964,6 +5056,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4434909</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5185,6 +5282,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4434913</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5394,6 +5496,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>4437450</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5615,6 +5722,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4610778</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5836,6 +5948,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6049,6 +6162,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4766090</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6270,6 +6388,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>4610771</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6471,6 +6594,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6696,6 +6820,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4434877</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6917,6 +7046,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4434881</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7126,6 +7260,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7355,6 +7490,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4610792</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7572,6 +7712,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>4610784</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7658,7 +7803,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Hosokawa, Shigeo/0000-0002-7963-748X; </t>
+          <t>Hosokawa, Shigeo/0000-0002-7963-748X;</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -7797,6 +7942,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4434958</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8006,6 +8156,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>4610809</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8223,6 +8378,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4434945</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8448,6 +8608,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4434882</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8661,6 +8826,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>4434955</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8882,6 +9052,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4434904</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9099,6 +9274,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>4434956</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9316,6 +9496,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4610806</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9529,6 +9714,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>4434912</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9742,6 +9932,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4610779</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9828,7 +10023,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Miranda, Ruben/0000-0002-3675-247X; </t>
+          <t>Miranda, Ruben/0000-0002-3675-247X;</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -9967,6 +10162,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4437460</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10184,6 +10384,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>4434887</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10405,6 +10610,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>4434886</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10630,6 +10840,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>4434910</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10851,6 +11066,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4434893</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11076,6 +11296,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4434946</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11301,6 +11526,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>4610799</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11498,6 +11728,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>4610789</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11719,6 +11954,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>4434878</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11944,6 +12184,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4434901</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12161,6 +12406,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>4434903</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12386,6 +12636,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>3770470</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12472,7 +12727,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Junkers, Tanja/0000-0002-6825-5777; Vanderzande, Dirk/0000-0002-9110-124X; </t>
+          <t>Junkers, Tanja/0000-0002-6825-5777; Vanderzande, Dirk/0000-0002-9110-124X;</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -12611,6 +12866,11 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>4434925</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12828,6 +13088,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>4434879</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13045,6 +13310,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>4610804</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13254,6 +13524,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4610803</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13467,6 +13742,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>4434900</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13684,6 +13964,11 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>4434906</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13897,6 +14182,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>4434924</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14118,6 +14408,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>4434911</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14331,6 +14626,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>4434926</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14556,6 +14856,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>4434914</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14781,6 +15086,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4610802</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15006,6 +15316,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4434932</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15215,6 +15530,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4434902</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15432,6 +15752,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>4383390</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15649,6 +15974,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>4434917</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15874,6 +16204,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4434997</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16103,6 +16438,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4434894</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16328,6 +16668,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>4434880</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16545,6 +16890,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>4434899</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16758,6 +17108,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>4434980</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16979,6 +17334,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>4434957</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17192,6 +17552,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>4434962</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17405,6 +17770,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>4434963</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17610,6 +17980,11 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>4434964</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17831,6 +18206,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>4434967</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18036,6 +18416,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4434969</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18249,6 +18634,11 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>4434976</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18462,6 +18852,11 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>4434981</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18675,6 +19070,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4434941</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18888,6 +19288,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>4434968</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19101,6 +19506,11 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>4434982</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19322,6 +19732,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4434919</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19543,6 +19958,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>4434966</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19756,6 +20176,11 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>4434959</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19969,6 +20394,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>4434961</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20174,6 +20604,11 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>4434934</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20383,6 +20818,11 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>4434940</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20588,6 +21028,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>4434965</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20809,6 +21254,11 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>4434927</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21022,6 +21472,11 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>4434942</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21235,6 +21690,11 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>4434983</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21452,6 +21912,11 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>4434977</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21665,6 +22130,11 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>4434989</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21882,6 +22352,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>4434923</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22095,6 +22570,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>4434978</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22308,6 +22788,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>4434937</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22513,6 +22998,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4434991</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22722,6 +23212,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>4434998</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22935,6 +23430,11 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>4435011</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23144,6 +23644,11 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>4434960</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23361,6 +23866,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>4435012</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23582,6 +24092,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4434933</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23795,6 +24310,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24016,6 +24532,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>4434921</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24229,6 +24750,11 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>4434996</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24446,6 +24972,11 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>4434999</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24655,6 +25186,11 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>4009038</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24860,6 +25396,11 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>4434975</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25073,6 +25614,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>4434986</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25286,6 +25832,11 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>4434973</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25491,6 +26042,11 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>4434943</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25696,6 +26252,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4434922</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25917,6 +26478,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>4434939</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26138,6 +26704,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>4434974</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26359,6 +26930,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>4434938</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26556,6 +27132,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>4434948</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26769,6 +27350,11 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>2949602</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26978,6 +27564,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>3938026</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27199,6 +27790,11 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>4435000</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27416,6 +28012,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>4434972</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27633,6 +28234,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>4434984</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27854,6 +28460,11 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr">
+        <is>
+          <t>3953455</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28079,6 +28690,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>3770472</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28304,6 +28920,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>4434992</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28529,6 +29150,11 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr">
+        <is>
+          <t>4209819</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28746,6 +29372,11 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr">
+        <is>
+          <t>4434970</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28967,6 +29598,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>3997286</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29184,6 +29820,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4434993</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29401,6 +30042,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>3947482</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29626,6 +30272,11 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr">
+        <is>
+          <t>4434990</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29843,6 +30494,11 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr">
+        <is>
+          <t>3997289</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30052,6 +30708,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>4434995</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30271,6 +30932,7 @@
       </c>
       <c r="BP138" t="inlineStr"/>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30496,6 +31158,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>4434987</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30721,6 +31388,11 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr">
+        <is>
+          <t>4434985</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30946,6 +31618,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>4434988</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31155,6 +31832,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>4434994</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31360,6 +32042,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>4435008</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31573,6 +32260,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>3997288</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31782,6 +32474,11 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr">
+        <is>
+          <t>3887956</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31999,6 +32696,11 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr">
+        <is>
+          <t>3976961</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32224,6 +32926,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>3887634</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32441,6 +33148,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>3938027</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32662,6 +33374,11 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr">
+        <is>
+          <t>3947484</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32871,6 +33588,11 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr">
+        <is>
+          <t>3953450</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33088,6 +33810,11 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr">
+        <is>
+          <t>3953456</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33309,6 +34036,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>3953451</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33530,6 +34262,11 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr">
+        <is>
+          <t>3953448</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33747,6 +34484,11 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr">
+        <is>
+          <t>3976960</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33972,6 +34714,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>3976959</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34181,6 +34928,11 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr">
+        <is>
+          <t>3976958</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34390,6 +35142,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>4435009</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34615,6 +35372,11 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr">
+        <is>
+          <t>4435007</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34832,6 +35594,11 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr">
+        <is>
+          <t>3976962</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35045,6 +35812,11 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>4435002</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35262,6 +36034,11 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr">
+        <is>
+          <t>3997287</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35467,6 +36244,11 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr">
+        <is>
+          <t>3906241</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35680,6 +36462,11 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr">
+        <is>
+          <t>3906249</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35885,6 +36672,11 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr">
+        <is>
+          <t>3906395</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36090,6 +36882,11 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr">
+        <is>
+          <t>3906245</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36311,6 +37108,11 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr">
+        <is>
+          <t>3885061</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36532,6 +37334,11 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr">
+        <is>
+          <t>3807112</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36745,6 +37552,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>3859179</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36950,6 +37762,11 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr">
+        <is>
+          <t>3879177</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37163,6 +37980,11 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr">
+        <is>
+          <t>3774743</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37372,6 +38194,11 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr">
+        <is>
+          <t>3847084</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37577,6 +38404,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>3885059</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37798,6 +38630,11 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr">
+        <is>
+          <t>3885060</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -38011,6 +38848,11 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr">
+        <is>
+          <t>3887632</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38228,6 +39070,11 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr">
+        <is>
+          <t>3879179</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38445,6 +39292,11 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr">
+        <is>
+          <t>3863121</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38658,6 +39510,11 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr">
+        <is>
+          <t>3846309</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38871,6 +39728,11 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr">
+        <is>
+          <t>3887827</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39084,6 +39946,11 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr">
+        <is>
+          <t>3906246</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39297,6 +40164,11 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr">
+        <is>
+          <t>3887635</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39518,6 +40390,11 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr">
+        <is>
+          <t>3887958</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39739,6 +40616,11 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr">
+        <is>
+          <t>3891886</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39952,6 +40834,11 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr">
+        <is>
+          <t>3891885</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -40165,6 +41052,11 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr">
+        <is>
+          <t>3841350</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40362,6 +41254,11 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr">
+        <is>
+          <t>3835744</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40599,6 +41496,11 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr">
+        <is>
+          <t>3835733</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40828,6 +41730,11 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr">
+        <is>
+          <t>3770469</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41053,6 +41960,11 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr">
+        <is>
+          <t>3006287</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41151,7 +42063,7 @@
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>Dulf, Eva-Henrietta/0000-0002-6540-6525; </t>
+          <t>Dulf, Eva-Henrietta/0000-0002-6540-6525;</t>
         </is>
       </c>
       <c r="AB189" t="inlineStr">
@@ -41290,6 +42202,11 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr">
+        <is>
+          <t>3719417</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41519,6 +42436,11 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr">
+        <is>
+          <t>3722532</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41748,6 +42670,11 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr">
+        <is>
+          <t>3719419</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41977,6 +42904,11 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr">
+        <is>
+          <t>3722738</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42214,6 +43146,11 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr">
+        <is>
+          <t>3719416</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42451,6 +43388,11 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr">
+        <is>
+          <t>3752887</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42684,6 +43626,11 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr">
+        <is>
+          <t>3756774</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42921,6 +43868,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>3722533</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -43150,6 +44102,11 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr">
+        <is>
+          <t>3756773</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43383,6 +44340,11 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr">
+        <is>
+          <t>3770464</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43612,6 +44574,11 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr">
+        <is>
+          <t>3752886</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43849,6 +44816,11 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr">
+        <is>
+          <t>3793917</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -44074,6 +45046,11 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr">
+        <is>
+          <t>3835736</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44279,6 +45256,11 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr">
+        <is>
+          <t>3745513</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44516,6 +45498,11 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr">
+        <is>
+          <t>3775093</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44753,6 +45740,11 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr">
+        <is>
+          <t>3761451</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44994,6 +45986,11 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr">
+        <is>
+          <t>3752885</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -45219,6 +46216,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>3719414</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45432,6 +46434,11 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr">
+        <is>
+          <t>3086092</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45645,6 +46652,11 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr">
+        <is>
+          <t>3086091</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45866,6 +46878,11 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr">
+        <is>
+          <t>3046864</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -46079,6 +47096,11 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr">
+        <is>
+          <t>3311517</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -46300,6 +47322,11 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr">
+        <is>
+          <t>3086093</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46509,6 +47536,11 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr">
+        <is>
+          <t>3311524</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46722,6 +47754,11 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr">
+        <is>
+          <t>3263312</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46943,6 +47980,11 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr">
+        <is>
+          <t>3263351</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -47156,6 +48198,11 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr">
+        <is>
+          <t>3097404</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -47377,6 +48424,11 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr">
+        <is>
+          <t>3334835</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47598,6 +48650,11 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr">
+        <is>
+          <t>3334833</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47811,6 +48868,11 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr">
+        <is>
+          <t>3445831</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -48024,6 +49086,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>3334834</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -48233,6 +49300,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>3947488</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -48446,6 +49518,11 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr">
+        <is>
+          <t>3724414</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -48659,6 +49736,11 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr">
+        <is>
+          <t>3947481</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48872,6 +49954,11 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr">
+        <is>
+          <t>3046861</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -49085,6 +50172,11 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr">
+        <is>
+          <t>3006288</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -49306,6 +50398,11 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr">
+        <is>
+          <t>3086089</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -49519,6 +50616,11 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr">
+        <is>
+          <t>3311523</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49732,6 +50834,11 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr">
+        <is>
+          <t>2954021</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49945,6 +51052,11 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr">
+        <is>
+          <t>3058091</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -50150,6 +51262,11 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr">
+        <is>
+          <t>2954022</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -50363,6 +51480,11 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr">
+        <is>
+          <t>2954020</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -50576,6 +51698,11 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr">
+        <is>
+          <t>2977808</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50789,6 +51916,11 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr">
+        <is>
+          <t>2977802</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -51010,6 +52142,11 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr">
+        <is>
+          <t>3034007</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -51223,6 +52360,11 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr">
+        <is>
+          <t>3809484</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -51436,6 +52578,11 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr">
+        <is>
+          <t>2996971</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -51649,6 +52796,11 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr">
+        <is>
+          <t>3046867</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -51870,6 +53022,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -52087,6 +53240,11 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr">
+        <is>
+          <t>3006286</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -52300,6 +53458,11 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr">
+        <is>
+          <t>3034011</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -52517,6 +53680,11 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr">
+        <is>
+          <t>3108222</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -52734,6 +53902,11 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr">
+        <is>
+          <t>2996973</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52947,6 +54120,11 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr">
+        <is>
+          <t>2954025</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -53168,6 +54346,11 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr">
+        <is>
+          <t>2977803</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -53389,6 +54572,11 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr">
+        <is>
+          <t>2977807</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -53602,6 +54790,11 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr">
+        <is>
+          <t>3034006</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53815,6 +55008,11 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr">
+        <is>
+          <t>3046865</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -54000,6 +55198,11 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr">
+        <is>
+          <t>2999232</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -54217,6 +55420,11 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr">
+        <is>
+          <t>2949513</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -54430,6 +55638,11 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr">
+        <is>
+          <t>2945475</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -54647,6 +55860,11 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr">
+        <is>
+          <t>2945474</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54868,6 +56086,11 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr">
+        <is>
+          <t>2945479</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -55081,6 +56304,11 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr">
+        <is>
+          <t>2932882</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -55286,6 +56514,11 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr">
+        <is>
+          <t>2932891</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -55507,6 +56740,11 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr">
+        <is>
+          <t>2929666</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -55720,6 +56958,11 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr">
+        <is>
+          <t>2929859</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55933,6 +57176,11 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr">
+        <is>
+          <t>2855917</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -56146,6 +57394,11 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr">
+        <is>
+          <t>2945477</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -56232,7 +57485,7 @@
       </c>
       <c r="AA258" t="inlineStr">
         <is>
-          <t>Ma, Zhun/0000-0003-0661-0267; </t>
+          <t>Ma, Zhun/0000-0003-0661-0267;</t>
         </is>
       </c>
       <c r="AB258" t="inlineStr">
@@ -56367,6 +57620,11 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr">
+        <is>
+          <t>2932889</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -56580,6 +57838,11 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr">
+        <is>
+          <t>3809486</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56793,6 +58056,11 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr">
+        <is>
+          <t>2932890</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -57006,6 +58274,11 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr">
+        <is>
+          <t>2932885</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -57219,6 +58492,11 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr">
+        <is>
+          <t>2945473</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -57424,6 +58702,11 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr">
+        <is>
+          <t>2932886</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -57629,6 +58912,11 @@
         </is>
       </c>
       <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr">
+        <is>
+          <t>2932893</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -57834,6 +59122,11 @@
         </is>
       </c>
       <c r="BQ265" t="inlineStr"/>
+      <c r="BR265" t="inlineStr">
+        <is>
+          <t>2954023</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -58039,6 +59332,11 @@
         </is>
       </c>
       <c r="BQ266" t="inlineStr"/>
+      <c r="BR266" t="inlineStr">
+        <is>
+          <t>2932892</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -58260,6 +59558,11 @@
         </is>
       </c>
       <c r="BQ267" t="inlineStr"/>
+      <c r="BR267" t="inlineStr">
+        <is>
+          <t>2932888</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -58473,6 +59776,11 @@
         </is>
       </c>
       <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr">
+        <is>
+          <t>2932884</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
